--- a/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t>mana12ger</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>manager123</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>manager_01</t>
   </si>
 </sst>
 </file>
@@ -76,12 +100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -509,12 +540,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>